--- a/resource/relatorio_comissao_07-08_2025.xlsx
+++ b/resource/relatorio_comissao_07-08_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7530"/>
+    <workbookView windowWidth="19545" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório" sheetId="1" r:id="rId1"/>
@@ -1500,25 +1500,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.3097345132743" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.13274336283186" customWidth="1"/>
-    <col min="3" max="3" width="57.3628318584071" customWidth="1"/>
-    <col min="4" max="5" width="15.5929203539823" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.4601769911504" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.78761061946903" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.4601769911504" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.3142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" customWidth="1"/>
+    <col min="3" max="3" width="57.3619047619048" customWidth="1"/>
+    <col min="4" max="5" width="15.5904761904762" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.4571428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.79047619047619" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.4571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:8">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1530,22 +1532,22 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15"/>
-    <row r="3" ht="15"/>
-    <row r="4" ht="15.75" spans="1:3">
+    <row r="2" ht="15.75"/>
+    <row r="3" ht="15.75"/>
+    <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" ht="15.75"/>
-    <row r="6" ht="15.75" spans="3:3">
+    <row r="5" ht="16.5"/>
+    <row r="6" ht="16.5" spans="3:3">
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:8">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:8">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="12">
         <v>45846</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>495.76</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:8">
+    <row r="9" ht="15.75" spans="1:8">
       <c r="A9" s="12">
         <v>45846</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>537.75</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:8">
+    <row r="10" ht="15.75" spans="1:8">
       <c r="A10" s="12">
         <v>45853</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>205.56</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" ht="15.75" spans="1:8">
       <c r="A11" s="12">
         <v>45868</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" ht="15.75" spans="1:8">
       <c r="A12" s="12">
         <v>45868</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>176.74</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" ht="15.75" spans="1:8">
       <c r="A13" s="12">
         <v>45868</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>122.04</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="3:8">
+    <row r="14" ht="16.5" spans="3:8">
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
@@ -1741,13 +1743,13 @@
         <v>3658.86</v>
       </c>
     </row>
-    <row r="15" ht="15.75"/>
-    <row r="16" ht="15.75" spans="3:3">
+    <row r="15" ht="16.5"/>
+    <row r="16" ht="16.5" spans="3:3">
       <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="1:8">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:8">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="12">
         <v>45842</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>114.51</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" ht="15.75" spans="1:8">
       <c r="A19" s="12">
         <v>45846</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>112.43</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:8">
+    <row r="20" ht="15.75" spans="1:8">
       <c r="A20" s="12">
         <v>45849</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>789.18</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:8">
+    <row r="21" ht="15.75" spans="1:8">
       <c r="A21" s="12">
         <v>45849</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>1350.95</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:8">
+    <row r="22" ht="15.75" spans="1:8">
       <c r="A22" s="12">
         <v>45856</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>160.68</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:8">
+    <row r="23" ht="15.75" spans="1:8">
       <c r="A23" s="12">
         <v>45868</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>485.09</v>
       </c>
     </row>
-    <row r="24" ht="15.75" spans="3:8">
+    <row r="24" ht="16.5" spans="3:8">
       <c r="C24" s="10" t="s">
         <v>22</v>
       </c>
@@ -1937,13 +1939,13 @@
         <v>3012.83</v>
       </c>
     </row>
-    <row r="25" ht="15.75"/>
-    <row r="26" ht="15.75" spans="3:3">
+    <row r="25" ht="16.5"/>
+    <row r="26" ht="16.5" spans="3:3">
       <c r="C26" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:8">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="15.75" spans="1:8">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="12">
         <v>45849</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>126.72</v>
       </c>
     </row>
-    <row r="29" ht="15.75" spans="3:8">
+    <row r="29" ht="16.5" spans="3:8">
       <c r="C29" s="10" t="s">
         <v>22</v>
       </c>
@@ -2015,8 +2017,8 @@
         <v>126.72</v>
       </c>
     </row>
-    <row r="30" ht="15.75"/>
-    <row r="31" ht="15.75" spans="3:4">
+    <row r="30" ht="16.5"/>
+    <row r="31" ht="16.5" spans="3:4">
       <c r="C31" s="10" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15.75" spans="3:4">
+    <row r="32" ht="16.5" spans="3:4">
       <c r="C32" s="10" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>1328.38</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="3:4">
+    <row r="33" ht="16.5" spans="3:4">
       <c r="C33" s="10" t="s">
         <v>41</v>
       </c>
@@ -2040,14 +2042,14 @@
         <v>4927.24</v>
       </c>
     </row>
-    <row r="34" ht="15"/>
-    <row r="35" ht="15"/>
-    <row r="36" ht="15.75" spans="3:3">
+    <row r="34" ht="15.75"/>
+    <row r="35" ht="15.75"/>
+    <row r="36" ht="16.5" spans="3:3">
       <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:8">
+    <row r="37" ht="16.5" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:8">
+    <row r="38" ht="16.5" spans="1:8">
       <c r="A38" s="12">
         <v>45849</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>574.96</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:8">
+    <row r="39" ht="15.75" spans="1:8">
       <c r="A39" s="12">
         <v>45856</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>105.46</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:8">
+    <row r="40" ht="15.75" spans="1:8">
       <c r="A40" s="12">
         <v>45863</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:8">
+    <row r="41" ht="15.75" spans="1:8">
       <c r="A41" s="12">
         <v>45863</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>147.39</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:8">
+    <row r="42" ht="15.75" spans="1:8">
       <c r="A42" s="12">
         <v>45863</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>782.58</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:8">
+    <row r="43" ht="15.75" spans="1:8">
       <c r="A43" s="12">
         <v>45868</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>353.09</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="3:8">
+    <row r="44" ht="16.5" spans="3:8">
       <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
@@ -2239,22 +2241,22 @@
         <v>2098.88</v>
       </c>
     </row>
-    <row r="45" ht="15"/>
-    <row r="46" ht="15"/>
-    <row r="47" ht="15.75" spans="1:3">
+    <row r="45" ht="15.75"/>
+    <row r="46" ht="15.75"/>
+    <row r="47" ht="16.5" spans="1:3">
       <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" ht="15.75"/>
-    <row r="49" ht="15.75" spans="3:3">
+    <row r="48" ht="16.5"/>
+    <row r="49" ht="16.5" spans="3:3">
       <c r="C49" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="1:8">
+    <row r="50" ht="16.5" spans="1:8">
       <c r="A50" s="9" t="s">
         <v>3</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:8">
+    <row r="51" ht="16.5" spans="1:8">
       <c r="A51" s="12">
         <v>45846</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>379.87</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:8">
+    <row r="52" ht="15.75" spans="1:8">
       <c r="A52" s="12">
         <v>45853</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>271.34</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:8">
+    <row r="53" ht="15.75" spans="1:8">
       <c r="A53" s="12">
         <v>45856</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>1914.12</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:8">
+    <row r="54" ht="15.75" spans="1:8">
       <c r="A54" s="12">
         <v>45868</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>326.57</v>
       </c>
     </row>
-    <row r="55" ht="15.75" spans="3:8">
+    <row r="55" ht="16.5" spans="3:8">
       <c r="C55" s="10" t="s">
         <v>22</v>
       </c>
@@ -2398,8 +2400,8 @@
         <v>2891.89</v>
       </c>
     </row>
-    <row r="56" ht="15.75"/>
-    <row r="57" ht="15.75" spans="3:4">
+    <row r="56" ht="16.5"/>
+    <row r="57" ht="16.5" spans="3:4">
       <c r="C57" s="10" t="s">
         <v>65</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" ht="15.75" spans="3:4">
+    <row r="58" ht="16.5" spans="3:4">
       <c r="C58" s="10" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>1230.81</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="3:4">
+    <row r="59" ht="16.5" spans="3:4">
       <c r="C59" s="10" t="s">
         <v>67</v>
       </c>
@@ -2423,22 +2425,22 @@
         <v>4102.7</v>
       </c>
     </row>
-    <row r="60" ht="15"/>
-    <row r="61" ht="15"/>
-    <row r="62" ht="15.75" spans="1:3">
+    <row r="60" ht="15.75"/>
+    <row r="61" ht="15.75"/>
+    <row r="62" ht="16.5" spans="1:3">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
     </row>
-    <row r="63" ht="15.75"/>
-    <row r="64" ht="15.75" spans="3:3">
+    <row r="63" ht="16.5"/>
+    <row r="64" ht="16.5" spans="3:3">
       <c r="C64" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" ht="15.75" spans="1:8">
+    <row r="65" ht="16.5" spans="1:8">
       <c r="A65" s="9" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:8">
+    <row r="66" ht="16.5" spans="1:8">
       <c r="A66" s="12">
         <v>45840</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>893.73</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:8">
+    <row r="67" ht="15.75" spans="1:8">
       <c r="A67" s="12">
         <v>45842</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>297.65</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:8">
+    <row r="68" ht="15.75" spans="1:8">
       <c r="A68" s="12">
         <v>45846</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>510.48</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:8">
+    <row r="69" ht="15.75" spans="1:8">
       <c r="A69" s="12">
         <v>45853</v>
       </c>
@@ -2560,7 +2562,7 @@
         <v>735.72</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:8">
+    <row r="70" ht="15.75" spans="1:8">
       <c r="A70" s="12">
         <v>45868</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>638.55</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:8">
+    <row r="71" ht="15.75" spans="1:8">
       <c r="A71" s="12">
         <v>45868</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>831.6</v>
       </c>
     </row>
-    <row r="72" ht="15.75" spans="3:8">
+    <row r="72" ht="16.5" spans="3:8">
       <c r="C72" s="10" t="s">
         <v>22</v>
       </c>
@@ -2628,13 +2630,13 @@
         <v>3907.73</v>
       </c>
     </row>
-    <row r="73" ht="15.75"/>
-    <row r="74" ht="15.75" spans="3:3">
+    <row r="73" ht="16.5"/>
+    <row r="74" ht="16.5" spans="3:3">
       <c r="C74" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:8">
+    <row r="75" ht="16.5" spans="1:8">
       <c r="A75" s="9" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" ht="15.75" spans="1:8">
+    <row r="76" ht="16.5" spans="1:8">
       <c r="A76" s="12">
         <v>45839</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>222.66</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:8">
+    <row r="77" ht="15.75" spans="1:8">
       <c r="A77" s="12">
         <v>45840</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>342.71</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:8">
+    <row r="78" ht="15.75" spans="1:8">
       <c r="A78" s="12">
         <v>45842</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>40.47</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="1:8">
+    <row r="79" ht="15.75" spans="1:8">
       <c r="A79" s="12">
         <v>45842</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>48.89</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:8">
+    <row r="80" ht="15.75" spans="1:8">
       <c r="A80" s="12">
         <v>45842</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>110.29</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:8">
+    <row r="81" ht="15.75" spans="1:8">
       <c r="A81" s="12">
         <v>45842</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>179.51</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="1:8">
+    <row r="82" ht="15.75" spans="1:8">
       <c r="A82" s="12">
         <v>45842</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="1:8">
+    <row r="83" ht="15.75" spans="1:8">
       <c r="A83" s="12">
         <v>45842</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>63.14</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="1:8">
+    <row r="84" ht="15.75" spans="1:8">
       <c r="A84" s="12">
         <v>45842</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>165.38</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:8">
+    <row r="85" ht="15.75" spans="1:8">
       <c r="A85" s="12">
         <v>45842</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>70.51</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:8">
+    <row r="86" ht="15.75" spans="1:8">
       <c r="A86" s="12">
         <v>45842</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>295.67</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="1:8">
+    <row r="87" ht="15.75" spans="1:8">
       <c r="A87" s="12">
         <v>45842</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>266.5</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="1:8">
+    <row r="88" ht="15.75" spans="1:8">
       <c r="A88" s="12">
         <v>45842</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>159.17</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="1:8">
+    <row r="89" ht="15.75" spans="1:8">
       <c r="A89" s="12">
         <v>45852</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="90" ht="15.75" spans="3:8">
+    <row r="90" ht="16.5" spans="3:8">
       <c r="C90" s="10" t="s">
         <v>22</v>
       </c>
@@ -3014,8 +3016,8 @@
         <v>2055.77</v>
       </c>
     </row>
-    <row r="91" ht="15.75"/>
-    <row r="92" ht="15.75" spans="3:4">
+    <row r="91" ht="16.5"/>
+    <row r="92" ht="16.5" spans="3:4">
       <c r="C92" s="10" t="s">
         <v>103</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" spans="3:4">
+    <row r="93" ht="16.5" spans="3:4">
       <c r="C93" s="10" t="s">
         <v>104</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>1666.17</v>
       </c>
     </row>
-    <row r="94" ht="15.75" spans="3:4">
+    <row r="94" ht="16.5" spans="3:4">
       <c r="C94" s="10" t="s">
         <v>105</v>
       </c>
@@ -3039,22 +3041,22 @@
         <v>3721.94</v>
       </c>
     </row>
-    <row r="95" ht="15"/>
-    <row r="96" ht="15"/>
-    <row r="97" ht="15.75" spans="1:3">
+    <row r="95" ht="15.75"/>
+    <row r="96" ht="15.75"/>
+    <row r="97" ht="16.5" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" ht="15.75"/>
-    <row r="99" ht="15.75" spans="3:3">
+    <row r="98" ht="16.5"/>
+    <row r="99" ht="16.5" spans="3:3">
       <c r="C99" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" ht="15.75" spans="1:8">
+    <row r="100" ht="16.5" spans="1:8">
       <c r="A100" s="9" t="s">
         <v>3</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:8">
+    <row r="101" ht="16.5" spans="1:8">
       <c r="A101" s="12">
         <v>45846</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>306.27</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:8">
+    <row r="102" ht="15.75" spans="1:8">
       <c r="A102" s="12">
         <v>45846</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>418.99</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:8">
+    <row r="103" ht="15.75" spans="1:8">
       <c r="A103" s="12">
         <v>45863</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>763.82</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:8">
+    <row r="104" ht="15.75" spans="1:8">
       <c r="A104" s="12">
         <v>45863</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>726.58</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:8">
+    <row r="105" ht="15.75" spans="1:8">
       <c r="A105" s="12">
         <v>45868</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>506.26</v>
       </c>
     </row>
-    <row r="106" ht="15.75" spans="3:8">
+    <row r="106" ht="16.5" spans="3:8">
       <c r="C106" s="10" t="s">
         <v>22</v>
       </c>
@@ -3220,8 +3222,8 @@
         <v>2721.92</v>
       </c>
     </row>
-    <row r="107" ht="15.75"/>
-    <row r="108" ht="15.75" spans="3:4">
+    <row r="107" ht="16.5"/>
+    <row r="108" ht="16.5" spans="3:4">
       <c r="C108" s="10" t="s">
         <v>115</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" spans="3:4">
+    <row r="109" ht="16.5" spans="3:4">
       <c r="C109" s="10" t="s">
         <v>116</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>816.58</v>
       </c>
     </row>
-    <row r="110" ht="15.75" spans="3:4">
+    <row r="110" ht="16.5" spans="3:4">
       <c r="C110" s="10" t="s">
         <v>117</v>
       </c>
@@ -3245,14 +3247,14 @@
         <v>816.58</v>
       </c>
     </row>
-    <row r="111" ht="15"/>
-    <row r="112" ht="15"/>
-    <row r="113" ht="15.75" spans="3:3">
+    <row r="111" ht="15.75"/>
+    <row r="112" ht="15.75"/>
+    <row r="113" ht="16.5" spans="3:3">
       <c r="C113" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="114" ht="15.75" spans="1:8">
+    <row r="114" ht="16.5" spans="1:8">
       <c r="A114" s="9" t="s">
         <v>3</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" ht="15.75" spans="1:8">
+    <row r="115" ht="16.5" spans="1:8">
       <c r="A115" s="12">
         <v>45842</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>834.56</v>
       </c>
     </row>
-    <row r="116" ht="15.75" spans="3:8">
+    <row r="116" ht="16.5" spans="3:8">
       <c r="C116" s="10" t="s">
         <v>22</v>
       </c>
@@ -3322,13 +3324,13 @@
         <v>834.56</v>
       </c>
     </row>
-    <row r="117" ht="15.75"/>
-    <row r="118" ht="15.75" spans="3:3">
+    <row r="117" ht="16.5"/>
+    <row r="118" ht="16.5" spans="3:3">
       <c r="C118" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" ht="15.75" spans="1:8">
+    <row r="119" ht="16.5" spans="1:8">
       <c r="A119" s="9" t="s">
         <v>3</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" ht="15.75" spans="1:8">
+    <row r="120" ht="16.5" spans="1:8">
       <c r="A120" s="12">
         <v>45853</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>117.08</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:8">
+    <row r="121" ht="15.75" spans="1:8">
       <c r="A121" s="12">
         <v>45853</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>156.06</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:8">
+    <row r="122" ht="15.75" spans="1:8">
       <c r="A122" s="12">
         <v>45856</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>179.72</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:8">
+    <row r="123" ht="15.75" spans="1:8">
       <c r="A123" s="12">
         <v>45856</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>367.61</v>
       </c>
     </row>
-    <row r="124" ht="15.75" spans="3:8">
+    <row r="124" ht="16.5" spans="3:8">
       <c r="C124" s="10" t="s">
         <v>22</v>
       </c>
@@ -3472,13 +3474,13 @@
         <v>820.46</v>
       </c>
     </row>
-    <row r="125" ht="15.75"/>
-    <row r="126" ht="15.75" spans="3:3">
+    <row r="125" ht="16.5"/>
+    <row r="126" ht="16.5" spans="3:3">
       <c r="C126" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="127" ht="15.75" spans="1:8">
+    <row r="127" ht="16.5" spans="1:8">
       <c r="A127" s="9" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" ht="15.75" spans="1:8">
+    <row r="128" ht="16.5" spans="1:8">
       <c r="A128" s="12">
         <v>45840</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>166.82</v>
       </c>
     </row>
-    <row r="129" ht="15.75" spans="3:8">
+    <row r="129" ht="16.5" spans="3:8">
       <c r="C129" s="10" t="s">
         <v>22</v>
       </c>
@@ -3548,13 +3550,13 @@
         <v>166.82</v>
       </c>
     </row>
-    <row r="130" ht="15.75"/>
-    <row r="131" ht="15.75" spans="3:3">
+    <row r="130" ht="16.5"/>
+    <row r="131" ht="16.5" spans="3:3">
       <c r="C131" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="132" ht="15.75" spans="1:8">
+    <row r="132" ht="16.5" spans="1:8">
       <c r="A132" s="9" t="s">
         <v>3</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" ht="15.75" spans="1:8">
+    <row r="133" ht="16.5" spans="1:8">
       <c r="A133" s="12">
         <v>45856</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>110.31</v>
       </c>
     </row>
-    <row r="134" ht="15.75" spans="3:8">
+    <row r="134" ht="16.5" spans="3:8">
       <c r="C134" s="10" t="s">
         <v>22</v>
       </c>
@@ -3624,7 +3626,7 @@
         <v>110.31</v>
       </c>
     </row>
-    <row r="135" ht="15"/>
+    <row r="135" ht="15.75"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
@@ -3634,6 +3636,7 @@
     <mergeCell ref="A97:C97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>